--- a/models/ATT2ITM_amazon_GS.xlsx
+++ b/models/ATT2ITM_amazon_GS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>batch_size</t>
   </si>
@@ -38,42 +38,6 @@
     <t>learning_rate</t>
   </si>
   <si>
-    <t>[0.31247494 0.34163326]</t>
-  </si>
-  <si>
-    <t>[3.33705068 3.06583977]</t>
-  </si>
-  <si>
-    <t>[36. 85.]</t>
-  </si>
-  <si>
-    <t>1badd2185814e515e43609bc6b2c13ae</t>
-  </si>
-  <si>
-    <t>3bdd3600f06b501b2594a0bd291a979e</t>
-  </si>
-  <si>
-    <t>2688e1348f68ac55ad5f8e1c5a1b14ee</t>
-  </si>
-  <si>
-    <t>a2dc7d1d239195fbadea2ecea3bb7c36</t>
-  </si>
-  <si>
-    <t>07e4ea1a6d8cd63a9d836a225e53b0b3</t>
-  </si>
-  <si>
-    <t>dbfbc63c3657f955154174a2af9e2cf2</t>
-  </si>
-  <si>
-    <t>9acaf96563355bbdf41353966c563033</t>
-  </si>
-  <si>
-    <t>9093f43e40fa5c426b5e0ba14f5c88d7</t>
-  </si>
-  <si>
-    <t>['fb06725a3824c971bab62e4050e69224' 'e6ac1cdacffbcad0d1dc0ac1e408df77']</t>
-  </si>
-  <si>
     <t>4a911d681a2e778146cd585bd91a9d77</t>
   </si>
   <si>
@@ -147,33 +111,6 @@
   </si>
   <si>
     <t>Max_Val_R1</t>
-  </si>
-  <si>
-    <t>cb69a866495b70b18766a42c8a1fda1f</t>
-  </si>
-  <si>
-    <t>61aa3d12ccef84f7048f6cd09be049db</t>
-  </si>
-  <si>
-    <t>1233e34e253e2ece93ae6701d95014e7</t>
-  </si>
-  <si>
-    <t>5ca9557a633907abaa60bf3da7a36255</t>
-  </si>
-  <si>
-    <t>44d1a0cb63fc42cf7a2f69905f1a86a4</t>
-  </si>
-  <si>
-    <t>d85194a7d54046bfdf60b728f78f84b4</t>
-  </si>
-  <si>
-    <t>d193f6afa83b2a31d4373b2cb5734afe</t>
-  </si>
-  <si>
-    <t>04752656250fe4e33b4cdef01ec10e6d</t>
-  </si>
-  <si>
-    <t>b98ea84ff6f95739c1b924ae76ef0a3e</t>
   </si>
   <si>
     <t>9eb53ca88e5907c852217107ac3677ee</t>
@@ -642,18 +579,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AA16"/>
+  <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="27" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27">
+    <row r="2" spans="2:15">
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -668,66 +605,42 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="2:27">
+    </row>
+    <row r="3" spans="2:15">
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-    </row>
-    <row r="4" spans="2:27">
+    </row>
+    <row r="4" spans="2:15">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="E4" s="3">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="F4" s="3">
-        <v>256</v>
+        <v>2048</v>
       </c>
       <c r="G4" s="3">
         <v>512</v>
@@ -739,13 +652,13 @@
         <v>2048</v>
       </c>
       <c r="J4" s="3">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="K4" s="3">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="L4" s="3">
-        <v>256</v>
+        <v>2048</v>
       </c>
       <c r="M4" s="3">
         <v>512</v>
@@ -756,44 +669,8 @@
       <c r="O4" s="3">
         <v>2048</v>
       </c>
-      <c r="P4" s="3">
-        <v>64</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>128</v>
-      </c>
-      <c r="R4" s="3">
-        <v>256</v>
-      </c>
-      <c r="S4" s="3">
-        <v>512</v>
-      </c>
-      <c r="T4" s="3">
-        <v>1024</v>
-      </c>
-      <c r="U4" s="3">
-        <v>2048</v>
-      </c>
-      <c r="V4" s="3">
-        <v>64</v>
-      </c>
-      <c r="W4" s="3">
-        <v>128</v>
-      </c>
-      <c r="X4" s="3">
-        <v>256</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>512</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>1024</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27">
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -801,486 +678,357 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:15">
       <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6" s="3">
         <v>1E-05</v>
       </c>
+      <c r="D6" s="1">
+        <v>0.3272044062614441</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.3206913769245147</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.3086673319339752</v>
+      </c>
       <c r="G6" s="1">
-        <v>0.3272044062614441</v>
+        <v>3.435362100601196</v>
       </c>
       <c r="H6" s="1">
-        <v>0.3206913769245147</v>
+        <v>3.509967565536499</v>
       </c>
       <c r="I6" s="1">
-        <v>0.3086673319339752</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3.435362100601196</v>
-      </c>
-      <c r="N6" s="1">
-        <v>3.509967565536499</v>
-      </c>
-      <c r="O6" s="1">
         <v>3.643698692321777</v>
       </c>
-      <c r="S6" s="1">
+      <c r="J6" s="1">
         <v>865</v>
       </c>
-      <c r="T6" s="1">
+      <c r="K6" s="1">
         <v>907</v>
       </c>
-      <c r="U6" s="1">
+      <c r="L6" s="1">
         <v>962</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27">
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>5E-05</v>
       </c>
+      <c r="D7" s="1">
+        <v>0.3292084038257599</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.3295591175556183</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.3290581107139587</v>
+      </c>
       <c r="G7" s="1">
-        <v>0.3292084038257599</v>
+        <v>3.416897058486938</v>
       </c>
       <c r="H7" s="1">
-        <v>0.3295591175556183</v>
+        <v>3.400614023208618</v>
       </c>
       <c r="I7" s="1">
-        <v>0.3290581107139587</v>
-      </c>
-      <c r="M7" s="1">
-        <v>3.416897058486938</v>
-      </c>
-      <c r="N7" s="1">
-        <v>3.400614023208618</v>
-      </c>
-      <c r="O7" s="1">
         <v>3.424484491348267</v>
       </c>
-      <c r="S7" s="1">
+      <c r="J7" s="1">
         <v>132</v>
       </c>
-      <c r="T7" s="1">
+      <c r="K7" s="1">
         <v>243</v>
       </c>
-      <c r="U7" s="1">
+      <c r="L7" s="1">
         <v>324</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27">
+      <c r="M7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>0.0001</v>
       </c>
+      <c r="D8" s="1">
+        <v>0.3251002132892608</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.3280059993267059</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.3279559016227722</v>
+      </c>
       <c r="G8" s="1">
-        <v>0.3251002132892608</v>
+        <v>3.432729959487915</v>
       </c>
       <c r="H8" s="1">
-        <v>0.3280059993267059</v>
+        <v>3.429268598556519</v>
       </c>
       <c r="I8" s="1">
-        <v>0.3279559016227722</v>
-      </c>
-      <c r="M8" s="1">
-        <v>3.432729959487915</v>
-      </c>
-      <c r="N8" s="1">
-        <v>3.429268598556519</v>
-      </c>
-      <c r="O8" s="1">
         <v>3.396043539047241</v>
       </c>
-      <c r="S8" s="1">
+      <c r="J8" s="1">
         <v>63</v>
       </c>
-      <c r="T8" s="1">
+      <c r="K8" s="1">
         <v>84</v>
       </c>
-      <c r="U8" s="1">
+      <c r="L8" s="1">
         <v>197</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27">
+      <c r="M8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="3"/>
       <c r="C9" s="3">
         <v>0.0005</v>
       </c>
+      <c r="D9" s="1">
+        <v>0.3141783475875854</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.3188376724720001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.3198897838592529</v>
+      </c>
       <c r="G9" s="1">
-        <v>0.3141783475875854</v>
+        <v>3.496994018554688</v>
       </c>
       <c r="H9" s="1">
-        <v>0.3188376724720001</v>
+        <v>3.459011316299438</v>
       </c>
       <c r="I9" s="1">
-        <v>0.3198897838592529</v>
-      </c>
-      <c r="M9" s="1">
-        <v>3.496994018554688</v>
-      </c>
-      <c r="N9" s="1">
-        <v>3.459011316299438</v>
-      </c>
-      <c r="O9" s="1">
         <v>3.428135633468628</v>
       </c>
-      <c r="S9" s="1">
+      <c r="J9" s="1">
         <v>21</v>
       </c>
-      <c r="T9" s="1">
+      <c r="K9" s="1">
         <v>24</v>
       </c>
-      <c r="U9" s="1">
+      <c r="L9" s="1">
         <v>52</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27">
+      <c r="M9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>1E-05</v>
       </c>
+      <c r="D10" s="1">
+        <v>0.257765531539917</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.2428356707096099</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.2248497009277343</v>
+      </c>
       <c r="G10" s="1">
-        <v>0.257765531539917</v>
+        <v>0.005684143397957</v>
       </c>
       <c r="H10" s="1">
-        <v>0.2428356707096099</v>
+        <v>0.0058544059284031</v>
       </c>
       <c r="I10" s="1">
-        <v>0.2248497009277343</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.005684143397957</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.0058544059284031</v>
-      </c>
-      <c r="O10" s="1">
         <v>0.0060516553930938</v>
       </c>
-      <c r="S10" s="1">
+      <c r="J10" s="1">
         <v>962</v>
       </c>
-      <c r="T10" s="1">
+      <c r="K10" s="1">
         <v>911</v>
       </c>
-      <c r="U10" s="1">
+      <c r="L10" s="1">
         <v>954</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27">
+      <c r="M10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="3"/>
       <c r="C11" s="3">
         <v>5E-05</v>
       </c>
+      <c r="D11" s="1">
+        <v>0.2777054011821747</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.2752003967761993</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.2782064080238342</v>
+      </c>
       <c r="G11" s="1">
-        <v>0.2777054011821747</v>
+        <v>0.0054973107762634</v>
       </c>
       <c r="H11" s="1">
-        <v>0.2752003967761993</v>
+        <v>0.0055137365125119</v>
       </c>
       <c r="I11" s="1">
-        <v>0.2782064080238342</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.0054973107762634</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.0055137365125119</v>
-      </c>
-      <c r="O11" s="1">
         <v>0.0055443821474909</v>
       </c>
-      <c r="S11" s="1">
+      <c r="J11" s="1">
         <v>361</v>
       </c>
-      <c r="T11" s="1">
+      <c r="K11" s="1">
         <v>440</v>
       </c>
-      <c r="U11" s="1">
+      <c r="L11" s="1">
         <v>757</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27">
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="3"/>
       <c r="C12" s="3">
         <v>0.0001</v>
       </c>
+      <c r="D12" s="1">
+        <v>0.2833166420459747</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.2787074148654938</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.2800100147724151</v>
+      </c>
       <c r="G12" s="1">
-        <v>0.2833166420459747</v>
+        <v>0.0055258409120142</v>
       </c>
       <c r="H12" s="1">
-        <v>0.2787074148654938</v>
+        <v>0.0054743033833801</v>
       </c>
       <c r="I12" s="1">
-        <v>0.2800100147724151</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.0055258409120142</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.0054743033833801</v>
-      </c>
-      <c r="O12" s="1">
         <v>0.0055264616385102</v>
       </c>
-      <c r="S12" s="1">
+      <c r="J12" s="1">
         <v>132</v>
       </c>
-      <c r="T12" s="1">
+      <c r="K12" s="1">
         <v>267</v>
       </c>
-      <c r="U12" s="1">
+      <c r="L12" s="1">
         <v>356</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27">
+      <c r="M12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="3"/>
       <c r="C13" s="3">
         <v>0.0005</v>
       </c>
+      <c r="D13" s="1">
+        <v>0.2866232395172119</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.2896292507648468</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.2856713533401489</v>
+      </c>
       <c r="G13" s="1">
-        <v>0.2866232395172119</v>
+        <v>0.0056634116917848</v>
       </c>
       <c r="H13" s="1">
-        <v>0.2896292507648468</v>
+        <v>0.0056018331088125</v>
       </c>
       <c r="I13" s="1">
-        <v>0.2856713533401489</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.0056634116917848</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.0056018331088125</v>
-      </c>
-      <c r="O13" s="1">
         <v>0.0054233614355325</v>
       </c>
-      <c r="S13" s="1">
+      <c r="J13" s="1">
         <v>79</v>
       </c>
-      <c r="T13" s="1">
+      <c r="K13" s="1">
         <v>94</v>
       </c>
-      <c r="U13" s="1">
+      <c r="L13" s="1">
         <v>95</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27">
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5E-05</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.3165330588817596</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.3160320520401001</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.3169839680194855</v>
-      </c>
-      <c r="J14" s="1">
-        <v>3.329152822494507</v>
-      </c>
-      <c r="K14" s="1">
-        <v>3.321132183074951</v>
-      </c>
-      <c r="L14" s="1">
-        <v>3.31849217414856</v>
-      </c>
-      <c r="P14" s="1">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>314</v>
-      </c>
-      <c r="R14" s="1">
-        <v>571</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
-        <v>0.0001</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.3158316612243652</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.3149799704551697</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.314679354429245</v>
-      </c>
-      <c r="J15" s="1">
-        <v>3.321723937988281</v>
-      </c>
-      <c r="K15" s="1">
-        <v>3.328962326049805</v>
-      </c>
-      <c r="L15" s="1">
-        <v>3.329771995544434</v>
-      </c>
-      <c r="P15" s="1">
-        <v>103</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>129</v>
-      </c>
-      <c r="R15" s="1">
-        <v>192</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W15" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3">
-        <v>0.0005</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.3110220432281494</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.3128256499767303</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="1">
-        <v>3.332965612411499</v>
-      </c>
-      <c r="K16" s="1">
-        <v>3.330316543579102</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P16" s="1">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="N13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="V3:AA3"/>
+  <mergeCells count="7">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:AA16">
+  <conditionalFormatting sqref="B2:O13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>TRUE</formula>
     </cfRule>
@@ -1291,18 +1039,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AA16"/>
+  <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="27" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27">
+    <row r="2" spans="2:15">
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1317,66 +1065,42 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="2:27">
+    </row>
+    <row r="3" spans="2:15">
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-    </row>
-    <row r="4" spans="2:27">
+    </row>
+    <row r="4" spans="2:15">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="E4" s="3">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="F4" s="3">
-        <v>256</v>
+        <v>2048</v>
       </c>
       <c r="G4" s="3">
         <v>512</v>
@@ -1388,13 +1112,13 @@
         <v>2048</v>
       </c>
       <c r="J4" s="3">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="K4" s="3">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="L4" s="3">
-        <v>256</v>
+        <v>2048</v>
       </c>
       <c r="M4" s="3">
         <v>512</v>
@@ -1405,44 +1129,8 @@
       <c r="O4" s="3">
         <v>2048</v>
       </c>
-      <c r="P4" s="3">
-        <v>64</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>128</v>
-      </c>
-      <c r="R4" s="3">
-        <v>256</v>
-      </c>
-      <c r="S4" s="3">
-        <v>512</v>
-      </c>
-      <c r="T4" s="3">
-        <v>1024</v>
-      </c>
-      <c r="U4" s="3">
-        <v>2048</v>
-      </c>
-      <c r="V4" s="3">
-        <v>64</v>
-      </c>
-      <c r="W4" s="3">
-        <v>128</v>
-      </c>
-      <c r="X4" s="3">
-        <v>256</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>512</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>1024</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27">
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1450,486 +1138,357 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:15">
       <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6" s="3">
         <v>1E-05</v>
       </c>
+      <c r="D6" s="1">
+        <v>0.3661190569400787</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.3612545430660248</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.347301036119461</v>
+      </c>
       <c r="G6" s="1">
-        <v>0.3661190569400787</v>
+        <v>3.885684251785278</v>
       </c>
       <c r="H6" s="1">
-        <v>0.3612545430660248</v>
+        <v>3.962900638580322</v>
       </c>
       <c r="I6" s="1">
-        <v>0.347301036119461</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3.885684251785278</v>
-      </c>
-      <c r="N6" s="1">
-        <v>3.962900638580322</v>
-      </c>
-      <c r="O6" s="1">
         <v>4.097225189208984</v>
       </c>
-      <c r="S6" s="1">
+      <c r="J6" s="1">
         <v>831</v>
       </c>
-      <c r="T6" s="1">
+      <c r="K6" s="1">
         <v>815</v>
       </c>
-      <c r="U6" s="1">
+      <c r="L6" s="1">
         <v>921</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27">
+      <c r="M6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>5E-05</v>
       </c>
+      <c r="D7" s="1">
+        <v>0.365863025188446</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.3662043809890747</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.365009605884552</v>
+      </c>
       <c r="G7" s="1">
-        <v>0.365863025188446</v>
+        <v>3.899649620056152</v>
       </c>
       <c r="H7" s="1">
-        <v>0.3662043809890747</v>
+        <v>3.837238073348999</v>
       </c>
       <c r="I7" s="1">
-        <v>0.365009605884552</v>
-      </c>
-      <c r="M7" s="1">
-        <v>3.899649620056152</v>
-      </c>
-      <c r="N7" s="1">
-        <v>3.837238073348999</v>
-      </c>
-      <c r="O7" s="1">
         <v>3.874928951263428</v>
       </c>
-      <c r="S7" s="1">
+      <c r="J7" s="1">
         <v>92</v>
       </c>
-      <c r="T7" s="1">
+      <c r="K7" s="1">
         <v>360</v>
       </c>
-      <c r="U7" s="1">
+      <c r="L7" s="1">
         <v>320</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27">
+      <c r="M7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>0.0001</v>
       </c>
+      <c r="D8" s="1">
+        <v>0.3624919950962066</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.3651376068592071</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.3653509616851806</v>
+      </c>
       <c r="G8" s="1">
-        <v>0.3624919950962066</v>
+        <v>3.864076852798462</v>
       </c>
       <c r="H8" s="1">
-        <v>0.3651376068592071</v>
+        <v>3.846370697021485</v>
       </c>
       <c r="I8" s="1">
-        <v>0.3653509616851806</v>
-      </c>
-      <c r="M8" s="1">
-        <v>3.864076852798462</v>
-      </c>
-      <c r="N8" s="1">
-        <v>3.846370697021485</v>
-      </c>
-      <c r="O8" s="1">
         <v>3.856415271759033</v>
       </c>
-      <c r="S8" s="1">
+      <c r="J8" s="1">
         <v>132</v>
       </c>
-      <c r="T8" s="1">
+      <c r="K8" s="1">
         <v>280</v>
       </c>
-      <c r="U8" s="1">
+      <c r="L8" s="1">
         <v>176</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27">
+      <c r="M8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="3"/>
       <c r="C9" s="3">
         <v>0.0005</v>
       </c>
+      <c r="D9" s="1">
+        <v>0.3502880334854126</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.35536590218544</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.3584382236003876</v>
+      </c>
       <c r="G9" s="1">
-        <v>0.3502880334854126</v>
+        <v>3.914050102233887</v>
       </c>
       <c r="H9" s="1">
-        <v>0.35536590218544</v>
+        <v>3.902540922164917</v>
       </c>
       <c r="I9" s="1">
-        <v>0.3584382236003876</v>
-      </c>
-      <c r="M9" s="1">
-        <v>3.914050102233887</v>
-      </c>
-      <c r="N9" s="1">
-        <v>3.902540922164917</v>
-      </c>
-      <c r="O9" s="1">
         <v>3.864331483840942</v>
       </c>
-      <c r="S9" s="1">
+      <c r="J9" s="1">
         <v>84</v>
       </c>
-      <c r="T9" s="1">
+      <c r="K9" s="1">
         <v>51</v>
       </c>
-      <c r="U9" s="1">
+      <c r="L9" s="1">
         <v>75</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27">
+      <c r="M9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>1E-05</v>
       </c>
+      <c r="D10" s="1">
+        <v>0.2546618282794952</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.2291871160268783</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.1929165720939636</v>
+      </c>
       <c r="G10" s="1">
-        <v>0.2546618282794952</v>
+        <v>0.0052872528322041</v>
       </c>
       <c r="H10" s="1">
-        <v>0.2291871160268783</v>
+        <v>0.0054429271258413</v>
       </c>
       <c r="I10" s="1">
-        <v>0.1929165720939636</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.0052872528322041</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.0054429271258413</v>
-      </c>
-      <c r="O10" s="1">
         <v>0.0056955204345285</v>
       </c>
-      <c r="S10" s="1">
+      <c r="J10" s="1">
         <v>896</v>
       </c>
-      <c r="T10" s="1">
+      <c r="K10" s="1">
         <v>947</v>
       </c>
-      <c r="U10" s="1">
+      <c r="L10" s="1">
         <v>972</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27">
+      <c r="M10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="3"/>
       <c r="C11" s="3">
         <v>5E-05</v>
       </c>
+      <c r="D11" s="1">
+        <v>0.2800085246562958</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.276040107011795</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.2718583345413208</v>
+      </c>
       <c r="G11" s="1">
-        <v>0.2800085246562958</v>
+        <v>0.0050604669377207</v>
       </c>
       <c r="H11" s="1">
-        <v>0.276040107011795</v>
+        <v>0.0051136189140379</v>
       </c>
       <c r="I11" s="1">
-        <v>0.2718583345413208</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.0050604669377207</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.0051136189140379</v>
-      </c>
-      <c r="O11" s="1">
         <v>0.0051322830840945</v>
       </c>
-      <c r="S11" s="1">
+      <c r="J11" s="1">
         <v>334</v>
       </c>
-      <c r="T11" s="1">
+      <c r="K11" s="1">
         <v>383</v>
       </c>
-      <c r="U11" s="1">
+      <c r="L11" s="1">
         <v>575</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27">
+      <c r="M11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="3"/>
       <c r="C12" s="3">
         <v>0.0001</v>
       </c>
+      <c r="D12" s="1">
+        <v>0.2882440686225891</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.2844890058040619</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.281331330537796</v>
+      </c>
       <c r="G12" s="1">
-        <v>0.2882440686225891</v>
+        <v>0.0050127506256103</v>
       </c>
       <c r="H12" s="1">
-        <v>0.2844890058040619</v>
+        <v>0.0050726816989481</v>
       </c>
       <c r="I12" s="1">
-        <v>0.281331330537796</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.0050127506256103</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.0050726816989481</v>
-      </c>
-      <c r="O12" s="1">
         <v>0.0050793774425983</v>
       </c>
-      <c r="S12" s="1">
+      <c r="J12" s="1">
         <v>238</v>
       </c>
-      <c r="T12" s="1">
+      <c r="K12" s="1">
         <v>366</v>
       </c>
-      <c r="U12" s="1">
+      <c r="L12" s="1">
         <v>433</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27">
+      <c r="M12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="3"/>
       <c r="C13" s="3">
         <v>0.0005</v>
       </c>
+      <c r="D13" s="1">
+        <v>0.2896949052810669</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.2942180633544922</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.2834222316741943</v>
+      </c>
       <c r="G13" s="1">
-        <v>0.2896949052810669</v>
+        <v>0.0051374677568674</v>
       </c>
       <c r="H13" s="1">
-        <v>0.2942180633544922</v>
+        <v>0.0050547248683869</v>
       </c>
       <c r="I13" s="1">
-        <v>0.2834222316741943</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.0051374677568674</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.0050547248683869</v>
-      </c>
-      <c r="O13" s="1">
         <v>0.0050283167511224</v>
       </c>
-      <c r="S13" s="1">
+      <c r="J13" s="1">
         <v>176</v>
       </c>
-      <c r="T13" s="1">
+      <c r="K13" s="1">
         <v>60</v>
       </c>
-      <c r="U13" s="1">
+      <c r="L13" s="1">
         <v>99</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27">
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5E-05</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.3516108393669128</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.3511841297149658</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.349221259355545</v>
-      </c>
-      <c r="J14" s="1">
-        <v>3.784772157669067</v>
-      </c>
-      <c r="K14" s="1">
-        <v>3.783308506011963</v>
-      </c>
-      <c r="L14" s="1">
-        <v>3.787880420684815</v>
-      </c>
-      <c r="P14" s="1">
-        <v>259</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>477</v>
-      </c>
-      <c r="R14" s="1">
-        <v>765</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W14" s="1" t="s">
+      <c r="M13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
-        <v>0.0001</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.3513974845409393</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.3498186469078064</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.348879873752594</v>
-      </c>
-      <c r="J15" s="1">
-        <v>3.784801483154297</v>
-      </c>
-      <c r="K15" s="1">
-        <v>3.788537740707397</v>
-      </c>
-      <c r="L15" s="1">
-        <v>3.787854671478272</v>
-      </c>
-      <c r="P15" s="1">
-        <v>127</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>173</v>
-      </c>
-      <c r="R15" s="1">
-        <v>300</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3">
-        <v>0.0005</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.3484104871749878</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.3488371968269348</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.3487091958522796</v>
-      </c>
-      <c r="J16" s="1">
-        <v>3.811201810836792</v>
-      </c>
-      <c r="K16" s="1">
-        <v>3.807586431503296</v>
-      </c>
-      <c r="L16" s="1">
-        <v>3.791905403137207</v>
-      </c>
-      <c r="P16" s="1">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>30</v>
-      </c>
-      <c r="R16" s="1">
-        <v>73</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>52</v>
+      <c r="O13" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="V3:AA3"/>
+  <mergeCells count="7">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:AA16">
+  <conditionalFormatting sqref="B2:O13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>TRUE</formula>
     </cfRule>
